--- a/webtool/data/Healing Given - Wildemount.xlsx
+++ b/webtool/data/Healing Given - Wildemount.xlsx
@@ -110,6 +110,14 @@
     <sheet state="visible" name="2-103" sheetId="105" r:id="rId107"/>
     <sheet state="visible" name="2-104" sheetId="106" r:id="rId108"/>
     <sheet state="visible" name="2-105" sheetId="107" r:id="rId109"/>
+    <sheet state="visible" name="2-106" sheetId="108" r:id="rId110"/>
+    <sheet state="visible" name="2-107" sheetId="109" r:id="rId111"/>
+    <sheet state="visible" name="2-108" sheetId="110" r:id="rId112"/>
+    <sheet state="visible" name="2-109" sheetId="111" r:id="rId113"/>
+    <sheet state="visible" name="2-110" sheetId="112" r:id="rId114"/>
+    <sheet state="visible" name="2-111" sheetId="113" r:id="rId115"/>
+    <sheet state="visible" name="2-112" sheetId="114" r:id="rId116"/>
+    <sheet state="visible" name="2-113" sheetId="115" r:id="rId117"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -117,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2158" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2326" uniqueCount="110">
   <si>
     <t>Player</t>
   </si>
@@ -383,6 +391,30 @@
     <t>02-105</t>
   </si>
   <si>
+    <t>02-106</t>
+  </si>
+  <si>
+    <t>02-107</t>
+  </si>
+  <si>
+    <t>02-108</t>
+  </si>
+  <si>
+    <t>02-109</t>
+  </si>
+  <si>
+    <t>02-110</t>
+  </si>
+  <si>
+    <t>02-111</t>
+  </si>
+  <si>
+    <t>02-112</t>
+  </si>
+  <si>
+    <t>02-113</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -624,7 +656,39 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/drawings/drawing108.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing109.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing110.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing111.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing112.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing113.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing114.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing115.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1065,23 +1129,23 @@
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B1000), "-")</f>
-        <v>1.841584158</v>
+        <v>1.706422018</v>
       </c>
       <c r="C2" s="3">
         <f t="shared" si="1"/>
-        <v>0.2095238095</v>
+        <v>0.1946902655</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.9292035398</v>
       </c>
       <c r="E2" s="3">
         <f t="shared" si="1"/>
-        <v>0.6571428571</v>
+        <v>0.610619469</v>
       </c>
       <c r="F2" s="3">
         <f t="shared" si="1"/>
-        <v>10.79207921</v>
+        <v>11.95412844</v>
       </c>
       <c r="G2" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1089,11 +1153,11 @@
       </c>
       <c r="H2" s="3">
         <f t="shared" si="1"/>
-        <v>1.246575342</v>
+        <v>1.271604938</v>
       </c>
       <c r="I2" s="3">
         <f t="shared" si="1"/>
-        <v>45.24358974</v>
+        <v>42.79069767</v>
       </c>
     </row>
     <row r="3">
@@ -1118,7 +1182,7 @@
       </c>
       <c r="F3" s="6">
         <f t="shared" si="2"/>
-        <v>1090</v>
+        <v>1303</v>
       </c>
       <c r="G3" s="7">
         <f t="shared" si="2"/>
@@ -1126,11 +1190,11 @@
       </c>
       <c r="H3" s="6">
         <f t="shared" si="2"/>
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="I3" s="6">
         <f t="shared" si="2"/>
-        <v>3529</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="4">
@@ -5019,52 +5083,300 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="21"/>
-      <c r="G109" s="9"/>
-      <c r="H109" s="9"/>
-      <c r="I109" s="9"/>
+      <c r="A109" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B109" s="12">
+        <f>IF(Attendance!B107="Y", '2-106'!B$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="C109" s="12">
+        <f>IF(Attendance!C107="Y", '2-106'!C$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="D109" s="12">
+        <f>IF(Attendance!D107="Y", '2-106'!D$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="E109" s="12">
+        <f>IF(Attendance!E107="Y", '2-106'!E$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="F109" s="12">
+        <f>IF(Attendance!F107="Y", '2-106'!F$3, "N/A")</f>
+        <v>213</v>
+      </c>
+      <c r="G109" s="11" t="str">
+        <f>IF(Attendance!G107="Y", '2-106'!G$3, "N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="H109" s="12">
+        <f>IF(Attendance!H107="Y", '2-106'!H$3, "N/A")</f>
+        <v>12</v>
+      </c>
+      <c r="I109" s="12">
+        <f>IF(Attendance!I107="Y", '2-106'!I$3, "N/A")</f>
+        <v>130</v>
+      </c>
     </row>
     <row r="110">
-      <c r="A110" s="21"/>
-      <c r="G110" s="9"/>
-      <c r="H110" s="9"/>
-      <c r="I110" s="9"/>
+      <c r="A110" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B110" s="12">
+        <f>IF(Attendance!B108="Y", '2-107'!B$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="C110" s="12">
+        <f>IF(Attendance!C108="Y", '2-107'!C$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="D110" s="12">
+        <f>IF(Attendance!D108="Y", '2-107'!D$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="E110" s="12">
+        <f>IF(Attendance!E108="Y", '2-107'!E$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="F110" s="12">
+        <f>IF(Attendance!F108="Y", '2-107'!F$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="G110" s="11" t="str">
+        <f>IF(Attendance!G108="Y", '2-107'!G$3, "N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="H110" s="12">
+        <f>IF(Attendance!H108="Y", '2-107'!H$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="I110" s="12">
+        <f>IF(Attendance!I108="Y", '2-107'!I$3, "N/A")</f>
+        <v>21</v>
+      </c>
     </row>
     <row r="111">
-      <c r="A111" s="21"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="9"/>
-      <c r="I111" s="9"/>
+      <c r="A111" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B111" s="12">
+        <f>IF(Attendance!B109="Y", '2-108'!B$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="C111" s="12">
+        <f>IF(Attendance!C109="Y", '2-108'!C$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="D111" s="12">
+        <f>IF(Attendance!D109="Y", '2-108'!D$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="E111" s="12">
+        <f>IF(Attendance!E109="Y", '2-108'!E$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="F111" s="12">
+        <f>IF(Attendance!F109="Y", '2-108'!F$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="G111" s="11" t="str">
+        <f>IF(Attendance!G109="Y", '2-108'!G$3, "N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="H111" s="12">
+        <f>IF(Attendance!H109="Y", '2-108'!H$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="I111" s="12">
+        <f>IF(Attendance!I109="Y", '2-108'!I$3, "N/A")</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
-      <c r="A112" s="21"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="9"/>
-      <c r="I112" s="9"/>
+      <c r="A112" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B112" s="13">
+        <f>IF(Attendance!B110="Y", '2-109'!B$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="C112" s="13">
+        <f>IF(Attendance!C110="Y", '2-109'!C$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="D112" s="13">
+        <f>IF(Attendance!D110="Y", '2-109'!D$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="E112" s="13">
+        <f>IF(Attendance!E110="Y", '2-109'!E$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="F112" s="13">
+        <f>IF(Attendance!F110="Y", '2-109'!F$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="G112" s="14" t="str">
+        <f>IF(Attendance!G110="Y", '2-109'!G$3, "N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="H112" s="13">
+        <f>IF(Attendance!H110="Y", '2-109'!H$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="I112" s="13">
+        <f>IF(Attendance!I110="Y", '2-109'!I$3, "N/A")</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
-      <c r="A113" s="21"/>
-      <c r="G113" s="9"/>
-      <c r="H113" s="9"/>
-      <c r="I113" s="9"/>
+      <c r="A113" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B113" s="19">
+        <f>IF(Attendance!B111="Y", '2-110'!B$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="C113" s="19">
+        <f>IF(Attendance!C111="Y", '2-110'!C$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="D113" s="19">
+        <f>IF(Attendance!D111="Y", '2-110'!D$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="E113" s="19">
+        <f>IF(Attendance!E111="Y", '2-110'!E$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="F113" s="19">
+        <f>IF(Attendance!F111="Y", '2-110'!F$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="G113" s="20" t="str">
+        <f>IF(Attendance!G111="Y", '2-110'!G$3, "N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="H113" s="19">
+        <f>IF(Attendance!H111="Y", '2-110'!H$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="I113" s="19">
+        <f>IF(Attendance!I111="Y", '2-110'!I$3, "N/A")</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
-      <c r="A114" s="21"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="9"/>
-      <c r="I114" s="9"/>
+      <c r="A114" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B114" s="13">
+        <f>IF(Attendance!B112="Y", '2-111'!B$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="C114" s="13">
+        <f>IF(Attendance!C112="Y", '2-111'!C$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="D114" s="13">
+        <f>IF(Attendance!D112="Y", '2-111'!D$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="E114" s="13">
+        <f>IF(Attendance!E112="Y", '2-111'!E$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="F114" s="13">
+        <f>IF(Attendance!F112="Y", '2-111'!F$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="G114" s="14" t="str">
+        <f>IF(Attendance!G112="Y", '2-111'!G$3, "N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="H114" s="13">
+        <f>IF(Attendance!H112="Y", '2-111'!H$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="I114" s="13">
+        <f>IF(Attendance!I112="Y", '2-111'!I$3, "N/A")</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
-      <c r="A115" s="21"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="9"/>
-      <c r="I115" s="9"/>
+      <c r="A115" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B115" s="12">
+        <f>IF(Attendance!B113="Y", '2-112'!B$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="C115" s="12">
+        <f>IF(Attendance!C113="Y", '2-112'!C$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="D115" s="12">
+        <f>IF(Attendance!D113="Y", '2-112'!D$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="E115" s="12">
+        <f>IF(Attendance!E113="Y", '2-112'!E$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="F115" s="12">
+        <f>IF(Attendance!F113="Y", '2-112'!F$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="G115" s="11" t="str">
+        <f>IF(Attendance!G113="Y", '2-112'!G$3, "N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="H115" s="12">
+        <f>IF(Attendance!H113="Y", '2-112'!H$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="I115" s="12">
+        <f>IF(Attendance!I113="Y", '2-112'!I$3, "N/A")</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
-      <c r="A116" s="21"/>
-      <c r="G116" s="9"/>
-      <c r="H116" s="9"/>
-      <c r="I116" s="9"/>
+      <c r="A116" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B116" s="19">
+        <f>IF(Attendance!B113="Y", '2-112'!B$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="C116" s="19">
+        <f>IF(Attendance!C113="Y", '2-112'!C$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="D116" s="19">
+        <f>IF(Attendance!D113="Y", '2-112'!D$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="E116" s="19">
+        <f>IF(Attendance!E113="Y", '2-112'!E$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="F116" s="19">
+        <f>IF(Attendance!F113="Y", '2-112'!F$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="G116" s="20" t="str">
+        <f>IF(Attendance!G113="Y", '2-112'!G$3, "N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="H116" s="19">
+        <f>IF(Attendance!H113="Y", '2-112'!H$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="I116" s="19">
+        <f>IF(Attendance!I113="Y", '2-112'!I$3, "N/A")</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="21"/>
@@ -8834,7 +9146,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -8848,7 +9160,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B6), "-")</f>
@@ -8962,13 +9274,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -8979,7 +9291,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -9111,13 +9423,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -9128,7 +9440,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -9276,13 +9588,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -9293,7 +9605,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -9410,13 +9722,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -9427,7 +9739,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -9542,13 +9854,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -9559,7 +9871,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -9685,13 +9997,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -9702,7 +10014,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -9809,13 +10121,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -9826,7 +10138,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -9943,13 +10255,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -9960,7 +10272,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -10150,6 +10462,331 @@
     <row r="27">
       <c r="I27" s="23">
         <v>20.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3.0" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B5" sqref="B5" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col hidden="1" min="7" max="7" width="14.43"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="3" t="str">
+        <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
+        <v>-</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="D2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="E2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" si="1"/>
+        <v>26.625</v>
+      </c>
+      <c r="G2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="H2" s="4">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="I2" s="3">
+        <f t="shared" si="1"/>
+        <v>14.44444444</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6">
+        <f t="shared" ref="B3:H3" si="2">SUM(B4:B19)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" si="2"/>
+        <v>213</v>
+      </c>
+      <c r="G3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="I3" s="6">
+        <f>SUM(I4:I29)</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="F4" s="23">
+        <v>29.0</v>
+      </c>
+      <c r="H4" s="23">
+        <v>12.0</v>
+      </c>
+      <c r="I4" s="23">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="F5" s="23">
+        <v>29.0</v>
+      </c>
+      <c r="I5" s="23">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="F6" s="23">
+        <v>29.0</v>
+      </c>
+      <c r="I6" s="23">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="F7" s="23">
+        <v>29.0</v>
+      </c>
+      <c r="I7" s="23">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="F8" s="23">
+        <v>29.0</v>
+      </c>
+      <c r="I8" s="23">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="F9" s="23">
+        <v>29.0</v>
+      </c>
+      <c r="I9" s="23">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="F10" s="23">
+        <v>29.0</v>
+      </c>
+      <c r="I10" s="23">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="F11" s="23">
+        <v>10.0</v>
+      </c>
+      <c r="I11" s="23">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="I12" s="23">
+        <v>10.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3.0" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B5" sqref="B5" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col hidden="1" min="7" max="7" width="14.43"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="3" t="str">
+        <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
+        <v>-</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="D2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="E2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="F2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="G2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="H2" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="I2" s="3">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6">
+        <f t="shared" ref="B3:H3" si="2">SUM(B4:B19)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <f>SUM(I4:I29)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="I4" s="23">
+        <v>21.0</v>
       </c>
     </row>
   </sheetData>
@@ -10186,7 +10823,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -10200,7 +10837,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B6), "-")</f>
@@ -10272,6 +10909,958 @@
     </row>
     <row r="6">
       <c r="A6" s="21"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3.0" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B5" sqref="B5" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col hidden="1" min="7" max="7" width="14.43"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="3" t="str">
+        <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
+        <v>-</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="D2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="E2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="F2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="G2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="H2" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="I2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6">
+        <f t="shared" ref="B3:H3" si="2">SUM(B4:B19)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <f>SUM(I4:I29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="D4" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="H4" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="I4" s="23">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3.0" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B5" sqref="B5" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col hidden="1" min="7" max="7" width="14.43"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="3" t="str">
+        <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
+        <v>-</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="D2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="E2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="F2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="G2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="H2" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="I2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6">
+        <f t="shared" ref="B3:H3" si="2">SUM(B4:B19)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <f>SUM(I4:I29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="D4" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="H4" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="I4" s="23">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3.0" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B5" sqref="B5" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col hidden="1" min="7" max="7" width="14.43"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="3" t="str">
+        <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
+        <v>-</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="D2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="E2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="F2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="G2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="H2" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="I2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6">
+        <f t="shared" ref="B3:H3" si="2">SUM(B4:B19)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <f>SUM(I4:I29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="D4" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="H4" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="I4" s="23">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3.0" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B5" sqref="B5" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col hidden="1" min="7" max="7" width="14.43"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="3" t="str">
+        <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
+        <v>-</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="D2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="E2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="F2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="G2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="H2" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="I2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6">
+        <f t="shared" ref="B3:H3" si="2">SUM(B4:B19)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <f>SUM(I4:I29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="D4" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="H4" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="I4" s="23">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet114.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3.0" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B5" sqref="B5" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col hidden="1" min="7" max="7" width="14.43"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="3" t="str">
+        <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
+        <v>-</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="D2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="E2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="F2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="G2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="H2" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="I2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6">
+        <f t="shared" ref="B3:H3" si="2">SUM(B4:B19)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <f>SUM(I4:I29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="D4" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="H4" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="I4" s="23">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3.0" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B5" sqref="B5" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col hidden="1" min="7" max="7" width="14.43"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="3" t="str">
+        <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
+        <v>-</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="D2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="E2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="F2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="G2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="H2" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="I2" s="3">
+        <f t="shared" si="1"/>
+        <v>16.93333333</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6">
+        <f t="shared" ref="B3:H3" si="2">SUM(B4:B19)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <f>SUM(I4:I29)</f>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="D4" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="H4" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="I4" s="23">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="I5" s="23">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="I6" s="23">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="I7" s="23">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="I8" s="23">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="I9" s="23">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="I10" s="23">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="I11" s="23">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="I12" s="23">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="I13" s="23">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="I14" s="23">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="I15" s="23">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="I16" s="23">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="I17" s="23">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="I18" s="23">
+        <v>16.0</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -10307,7 +11896,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -10321,7 +11910,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B8), "-")</f>
@@ -10446,7 +12035,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -10460,7 +12049,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B6), "-")</f>
@@ -10567,7 +12156,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -10581,7 +12170,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B7), "-")</f>
@@ -10700,7 +12289,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -10714,7 +12303,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B6), "-")</f>
@@ -10824,7 +12413,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -10838,7 +12427,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B6), "-")</f>
@@ -10966,7 +12555,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -10980,7 +12569,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B15), "-")</f>
@@ -11126,7 +12715,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -11140,7 +12729,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B7), "-")</f>
@@ -11253,7 +12842,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -11267,7 +12856,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B11), "-")</f>
@@ -11428,28 +13017,28 @@
         <v>43132.0</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3">
@@ -11457,31 +13046,31 @@
         <v>43133.0</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4">
@@ -11489,28 +13078,28 @@
         <v>43134.0</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5">
@@ -11518,28 +13107,28 @@
         <v>43135.0</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6">
@@ -11547,28 +13136,28 @@
         <v>43136.0</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
@@ -11576,28 +13165,28 @@
         <v>43137.0</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
@@ -11605,28 +13194,28 @@
         <v>43138.0</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
@@ -11634,28 +13223,28 @@
         <v>43139.0</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
@@ -11663,28 +13252,28 @@
         <v>43140.0</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11">
@@ -11692,28 +13281,28 @@
         <v>43141.0</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12">
@@ -11721,28 +13310,28 @@
         <v>43142.0</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13">
@@ -11750,28 +13339,28 @@
         <v>43143.0</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14">
@@ -11779,28 +13368,28 @@
         <v>43144.0</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15">
@@ -11808,28 +13397,28 @@
         <v>43145.0</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16">
@@ -11837,28 +13426,28 @@
         <v>43146.0</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17">
@@ -11866,28 +13455,28 @@
         <v>43147.0</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18">
@@ -11895,28 +13484,28 @@
         <v>43148.0</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19">
@@ -11924,28 +13513,28 @@
         <v>43149.0</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20">
@@ -11953,28 +13542,28 @@
         <v>43150.0</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21">
@@ -11982,28 +13571,28 @@
         <v>43151.0</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22">
@@ -12011,28 +13600,28 @@
         <v>43152.0</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23">
@@ -12040,28 +13629,28 @@
         <v>43153.0</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24">
@@ -12069,28 +13658,28 @@
         <v>43154.0</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25">
@@ -12098,28 +13687,28 @@
         <v>43155.0</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H25" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26">
@@ -12127,28 +13716,28 @@
         <v>43156.0</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H26" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I26" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27">
@@ -12156,28 +13745,28 @@
         <v>43157.0</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H27" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I27" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28">
@@ -12185,28 +13774,28 @@
         <v>43158.0</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H28" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29">
@@ -12214,28 +13803,28 @@
         <v>43159.0</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I29" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30">
@@ -12243,28 +13832,28 @@
         <v>11</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I30" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31">
@@ -12272,28 +13861,28 @@
         <v>12</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I31" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32">
@@ -12301,28 +13890,28 @@
         <v>13</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I32" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33">
@@ -12330,28 +13919,28 @@
         <v>14</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H33" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I33" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34">
@@ -12359,28 +13948,28 @@
         <v>15</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H34" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I34" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35">
@@ -12388,28 +13977,28 @@
         <v>16</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H35" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I35" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36">
@@ -12417,28 +14006,28 @@
         <v>17</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G36" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H36" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I36" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37">
@@ -12446,28 +14035,28 @@
         <v>18</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H37" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I37" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38">
@@ -12475,28 +14064,28 @@
         <v>19</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G38" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H38" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I38" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39">
@@ -12504,28 +14093,28 @@
         <v>20</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F39" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G39" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H39" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I39" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40">
@@ -12533,28 +14122,28 @@
         <v>21</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G40" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H40" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I40" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41">
@@ -12562,28 +14151,28 @@
         <v>22</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F41" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G41" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H41" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I41" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42">
@@ -12591,28 +14180,28 @@
         <v>23</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F42" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G42" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H42" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I42" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43">
@@ -12620,28 +14209,28 @@
         <v>24</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F43" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G43" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H43" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I43" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44">
@@ -12649,28 +14238,28 @@
         <v>25</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G44" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H44" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I44" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45">
@@ -12678,28 +14267,28 @@
         <v>26</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G45" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H45" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I45" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46">
@@ -12707,28 +14296,28 @@
         <v>27</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F46" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G46" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H46" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I46" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47">
@@ -12736,28 +14325,28 @@
         <v>28</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G47" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H47" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I47" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48">
@@ -12765,28 +14354,28 @@
         <v>29</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F48" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G48" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H48" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I48" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49">
@@ -12794,28 +14383,28 @@
         <v>30</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F49" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G49" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H49" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I49" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50">
@@ -12823,28 +14412,28 @@
         <v>31</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G50" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H50" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I50" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51">
@@ -12852,28 +14441,28 @@
         <v>32</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F51" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G51" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H51" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I51" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52">
@@ -12881,28 +14470,28 @@
         <v>33</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F52" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G52" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H52" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I52" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53">
@@ -12910,28 +14499,28 @@
         <v>34</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F53" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G53" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H53" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I53" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54">
@@ -12939,28 +14528,28 @@
         <v>35</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G54" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H54" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I54" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55">
@@ -12968,28 +14557,28 @@
         <v>36</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G55" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H55" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I55" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56">
@@ -12997,28 +14586,28 @@
         <v>37</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E56" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G56" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H56" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I56" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57">
@@ -13026,28 +14615,28 @@
         <v>38</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F57" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G57" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H57" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I57" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58">
@@ -13055,28 +14644,28 @@
         <v>39</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F58" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G58" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H58" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I58" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59">
@@ -13084,28 +14673,28 @@
         <v>40</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F59" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G59" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H59" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I59" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60">
@@ -13113,28 +14702,28 @@
         <v>41</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F60" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G60" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H60" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I60" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61">
@@ -13142,28 +14731,28 @@
         <v>42</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D61" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F61" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G61" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H61" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I61" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62">
@@ -13171,28 +14760,28 @@
         <v>43</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E62" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F62" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G62" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H62" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I62" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63">
@@ -13200,28 +14789,28 @@
         <v>44</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D63" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E63" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F63" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G63" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H63" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I63" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64">
@@ -13229,28 +14818,28 @@
         <v>45</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E64" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F64" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G64" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H64" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I64" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65">
@@ -13258,28 +14847,28 @@
         <v>46</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E65" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G65" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H65" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I65" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66">
@@ -13287,28 +14876,28 @@
         <v>47</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E66" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F66" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G66" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H66" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I66" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67">
@@ -13316,28 +14905,28 @@
         <v>48</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E67" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F67" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G67" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H67" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I67" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68">
@@ -13345,28 +14934,28 @@
         <v>49</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D68" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E68" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F68" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G68" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H68" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I68" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69">
@@ -13374,28 +14963,28 @@
         <v>50</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D69" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E69" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F69" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G69" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H69" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I69" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="70">
@@ -13403,28 +14992,28 @@
         <v>51</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D70" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E70" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F70" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G70" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H70" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I70" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71">
@@ -13432,28 +15021,28 @@
         <v>52</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D71" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E71" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F71" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G71" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H71" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I71" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72">
@@ -13461,28 +15050,28 @@
         <v>53</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C72" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E72" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F72" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G72" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H72" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I72" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73">
@@ -13490,28 +15079,28 @@
         <v>54</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C73" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E73" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F73" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G73" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H73" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I73" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74">
@@ -13519,28 +15108,28 @@
         <v>55</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D74" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E74" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F74" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G74" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H74" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I74" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="75">
@@ -13548,28 +15137,28 @@
         <v>56</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C75" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D75" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E75" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F75" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G75" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H75" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I75" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76">
@@ -13577,28 +15166,28 @@
         <v>57</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C76" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D76" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E76" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F76" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G76" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H76" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I76" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77">
@@ -13606,28 +15195,28 @@
         <v>58</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C77" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E77" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F77" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G77" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H77" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I77" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78">
@@ -13635,28 +15224,28 @@
         <v>59</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C78" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E78" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F78" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G78" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H78" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I78" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79">
@@ -13664,28 +15253,28 @@
         <v>60</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C79" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D79" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E79" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F79" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G79" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H79" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I79" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80">
@@ -13693,28 +15282,28 @@
         <v>61</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C80" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D80" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E80" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F80" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G80" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H80" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I80" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81">
@@ -13722,28 +15311,28 @@
         <v>62</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D81" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E81" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F81" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G81" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H81" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I81" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82">
@@ -13751,28 +15340,28 @@
         <v>63</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C82" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D82" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E82" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F82" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G82" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H82" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I82" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83">
@@ -13780,28 +15369,28 @@
         <v>64</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C83" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D83" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E83" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F83" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G83" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H83" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I83" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84">
@@ -13809,28 +15398,28 @@
         <v>65</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C84" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D84" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E84" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F84" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G84" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H84" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I84" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85">
@@ -13838,28 +15427,28 @@
         <v>66</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C85" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D85" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E85" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F85" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G85" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H85" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I85" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86">
@@ -13867,28 +15456,28 @@
         <v>67</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C86" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D86" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E86" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F86" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G86" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H86" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I86" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="87">
@@ -13896,28 +15485,28 @@
         <v>68</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C87" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D87" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E87" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F87" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G87" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H87" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I87" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88">
@@ -13925,28 +15514,28 @@
         <v>69</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C88" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D88" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E88" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F88" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G88" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H88" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I88" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="89">
@@ -13954,28 +15543,28 @@
         <v>70</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C89" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D89" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E89" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F89" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G89" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H89" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I89" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="90">
@@ -13983,28 +15572,28 @@
         <v>71</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C90" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D90" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E90" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F90" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G90" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H90" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I90" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="91">
@@ -14012,28 +15601,28 @@
         <v>72</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C91" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D91" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E91" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F91" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G91" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H91" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I91" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92">
@@ -14041,28 +15630,28 @@
         <v>73</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C92" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D92" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E92" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F92" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G92" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H92" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I92" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93">
@@ -14070,28 +15659,28 @@
         <v>74</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C93" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D93" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E93" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F93" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G93" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H93" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I93" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="94">
@@ -14099,28 +15688,28 @@
         <v>75</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C94" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D94" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E94" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F94" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G94" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H94" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I94" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="95">
@@ -14128,28 +15717,28 @@
         <v>76</v>
       </c>
       <c r="B95" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C95" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D95" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E95" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F95" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G95" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H95" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I95" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96">
@@ -14157,28 +15746,28 @@
         <v>77</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C96" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D96" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E96" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F96" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G96" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H96" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I96" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97">
@@ -14186,28 +15775,28 @@
         <v>78</v>
       </c>
       <c r="B97" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C97" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D97" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E97" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F97" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G97" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H97" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I97" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98">
@@ -14215,28 +15804,28 @@
         <v>79</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D98" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E98" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F98" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G98" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H98" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I98" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99">
@@ -14244,28 +15833,28 @@
         <v>80</v>
       </c>
       <c r="B99" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C99" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D99" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E99" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F99" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G99" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H99" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I99" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="100">
@@ -14273,28 +15862,28 @@
         <v>81</v>
       </c>
       <c r="B100" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C100" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D100" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E100" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F100" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G100" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H100" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I100" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101">
@@ -14302,28 +15891,28 @@
         <v>82</v>
       </c>
       <c r="B101" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C101" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D101" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E101" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F101" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G101" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H101" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I101" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="102">
@@ -14331,28 +15920,28 @@
         <v>83</v>
       </c>
       <c r="B102" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C102" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D102" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E102" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F102" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G102" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H102" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I102" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="103">
@@ -14360,28 +15949,28 @@
         <v>84</v>
       </c>
       <c r="B103" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C103" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D103" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E103" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F103" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G103" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H103" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I103" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="104">
@@ -14389,28 +15978,28 @@
         <v>85</v>
       </c>
       <c r="B104" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C104" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D104" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E104" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F104" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G104" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H104" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I104" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="105">
@@ -14418,28 +16007,28 @@
         <v>86</v>
       </c>
       <c r="B105" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C105" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D105" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E105" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F105" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G105" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H105" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I105" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="106">
@@ -14447,53 +16036,261 @@
         <v>87</v>
       </c>
       <c r="B106" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C106" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D106" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E106" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F106" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="G106" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="H106" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="I106" s="23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C106" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D106" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="E106" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="F106" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="G106" s="23" t="s">
+      <c r="B107" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C107" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D107" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E107" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F107" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="G107" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="H107" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="I107" s="23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H106" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="I106" s="23" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="21"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="21"/>
+      <c r="B108" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C108" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D108" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E108" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F108" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="G108" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="H108" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="I108" s="23" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="109">
-      <c r="A109" s="21"/>
+      <c r="A109" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B109" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C109" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D109" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E109" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F109" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="G109" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="H109" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="I109" s="23" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="110">
-      <c r="A110" s="21"/>
+      <c r="A110" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B110" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C110" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D110" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E110" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F110" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="G110" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="H110" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="I110" s="23" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="111">
-      <c r="A111" s="21"/>
+      <c r="A111" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B111" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C111" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D111" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E111" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F111" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="G111" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="H111" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="I111" s="23" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="112">
-      <c r="A112" s="21"/>
+      <c r="A112" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B112" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C112" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D112" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E112" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F112" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="G112" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="H112" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="I112" s="23" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="113">
-      <c r="A113" s="21"/>
+      <c r="A113" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B113" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C113" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D113" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E113" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F113" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="G113" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="H113" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="I113" s="23" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="114">
-      <c r="A114" s="21"/>
+      <c r="A114" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B114" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C114" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D114" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E114" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F114" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="G114" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="H114" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="I114" s="23" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="21"/>
@@ -14577,7 +16374,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -14591,7 +16388,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B6), "-")</f>
@@ -14707,7 +16504,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -14721,7 +16518,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B16), "-")</f>
@@ -14864,7 +16661,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -14878,7 +16675,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B9), "-")</f>
@@ -15003,7 +16800,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -15015,12 +16812,12 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B15), "-")</f>
@@ -15168,7 +16965,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -15182,7 +16979,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B13), "-")</f>
@@ -15343,7 +17140,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -15357,7 +17154,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B9), "-")</f>
@@ -15479,7 +17276,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -15493,7 +17290,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B6), "-")</f>
@@ -15600,7 +17397,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -15614,7 +17411,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B11), "-")</f>
@@ -15748,7 +17545,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -15760,12 +17557,12 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:F2" si="1">IF(B3&gt;0, AVERAGE(B4:B18), "-")</f>
@@ -15916,7 +17713,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -15928,15 +17725,15 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:F2" si="1">IF(B3&gt;0, AVERAGE(B4:B6), "-")</f>
@@ -16059,7 +17856,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -16073,7 +17870,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B8), "-")</f>
@@ -16195,13 +17992,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -16210,15 +18007,15 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:K2" si="1">IF(B3&gt;0, AVERAGE(B4:B11), "-")</f>
@@ -16382,13 +18179,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -16397,15 +18194,15 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:K2" si="1">IF(B3&gt;0, AVERAGE(B4:B20), "-")</f>
@@ -16614,13 +18411,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -16629,15 +18426,15 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:K2" si="1">IF(B3&gt;0, AVERAGE(B4:B6), "-")</f>
@@ -16774,13 +18571,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -16791,7 +18588,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B6), "-")</f>
@@ -16909,13 +18706,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -16926,7 +18723,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B7), "-")</f>
@@ -17050,13 +18847,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -17067,7 +18864,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B5), "-")</f>
@@ -17182,13 +18979,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -17199,7 +18996,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B15), "-")</f>
@@ -17359,13 +19156,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -17376,7 +19173,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B15), "-")</f>
@@ -17557,13 +19354,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -17574,7 +19371,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B7), "-")</f>
@@ -17698,13 +19495,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -17715,7 +19512,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B5), "-")</f>
@@ -17827,7 +19624,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -17841,7 +19638,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="9" t="str">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B6), "-")</f>
@@ -17951,13 +19748,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -17968,7 +19765,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B8), "-")</f>
@@ -18093,13 +19890,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -18110,7 +19907,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B19), "-")</f>
@@ -18237,13 +20034,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -18254,7 +20051,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B19), "-")</f>
@@ -18363,13 +20160,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -18380,7 +20177,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B19), "-")</f>
@@ -18499,13 +20296,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -18516,7 +20313,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B19), "-")</f>
@@ -18630,13 +20427,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -18645,12 +20442,12 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:J2" si="1">IF(B3&gt;0, AVERAGE(B4:B19), "-")</f>
@@ -18770,13 +20567,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -18787,7 +20584,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B19), "-")</f>
@@ -18928,13 +20725,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -18943,15 +20740,15 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:K2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -19109,13 +20906,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -19126,7 +20923,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -19243,13 +21040,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -19260,7 +21057,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -19371,7 +21168,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -19385,7 +21182,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B11), "-")</f>
@@ -19511,13 +21308,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -19528,7 +21325,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -19632,13 +21429,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -19649,7 +21446,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -19753,13 +21550,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -19770,7 +21567,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -19895,13 +21692,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -19912,7 +21709,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -20079,13 +21876,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -20096,7 +21893,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -20220,13 +22017,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -20237,7 +22034,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -20357,13 +22154,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -20374,7 +22171,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -20488,13 +22285,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -20505,7 +22302,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -20705,13 +22502,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -20722,7 +22519,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -20849,13 +22646,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -20866,7 +22663,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -20995,7 +22792,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -21009,7 +22806,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B7), "-")</f>
@@ -21117,13 +22914,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -21134,7 +22931,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -21261,13 +23058,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -21278,7 +23075,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -21440,13 +23237,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -21457,7 +23254,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -21597,13 +23394,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -21614,7 +23411,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -21741,13 +23538,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -21758,7 +23555,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -21885,13 +23682,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -21902,7 +23699,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -22039,13 +23836,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -22056,7 +23853,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -22203,13 +24000,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -22220,7 +24017,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -22362,13 +24159,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -22379,7 +24176,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -22506,13 +24303,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -22523,7 +24320,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -22674,7 +24471,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -22688,7 +24485,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B9), "-")</f>
@@ -22811,13 +24608,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -22828,7 +24625,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B11), "-")</f>
@@ -22965,13 +24762,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -22982,7 +24779,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -23125,13 +24922,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -23142,7 +24939,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -23249,13 +25046,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -23266,7 +25063,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -23378,13 +25175,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -23395,7 +25192,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -23507,13 +25304,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -23524,7 +25321,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -23674,13 +25471,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -23691,7 +25488,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -23803,13 +25600,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -23820,7 +25617,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -23927,13 +25724,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -23942,12 +25739,12 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:J2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -24083,13 +25880,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -24100,7 +25897,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -24214,7 +26011,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -24228,7 +26025,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:F2" si="1">IF(B3&gt;0, AVERAGE(B4:B10), "-")</f>
@@ -24351,13 +26148,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -24368,7 +26165,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -24475,13 +26272,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -24492,7 +26289,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -24599,13 +26396,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -24616,7 +26413,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -24723,13 +26520,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -24740,7 +26537,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -24881,13 +26678,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -24898,7 +26695,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -25110,13 +26907,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -25127,7 +26924,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -25234,13 +27031,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -25251,7 +27048,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -25358,13 +27155,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -25375,7 +27172,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -25495,13 +27292,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -25512,7 +27309,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -25676,13 +27473,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -25693,7 +27490,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -25843,7 +27640,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -25855,12 +27652,12 @@
         <v>7</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B15), "-")</f>
@@ -26012,13 +27809,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -26029,7 +27826,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -26159,13 +27956,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -26176,7 +27973,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -26306,13 +28103,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -26323,7 +28120,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -26453,13 +28250,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -26470,7 +28267,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -26600,13 +28397,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -26617,7 +28414,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -26747,13 +28544,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -26764,7 +28561,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -26919,13 +28716,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -26936,7 +28733,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -27096,13 +28893,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -27113,7 +28910,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -27250,13 +29047,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -27267,7 +29064,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -27390,13 +29187,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -27407,7 +29204,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
